--- a/INTLINE/data/193/ABS/645704.xlsx
+++ b/INTLINE/data/193/ABS/645704.xlsx
@@ -12,176 +12,176 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2294886K">Data1!$B$1:$B$10,Data1!$B$11:$B$200</definedName>
-    <definedName name="A2294886K_Data">Data1!$B$11:$B$200</definedName>
-    <definedName name="A2294886K_Latest">Data1!$B$200</definedName>
-    <definedName name="A2294887L">Data1!$C$1:$C$10,Data1!$C$12:$C$200</definedName>
-    <definedName name="A2294887L_Data">Data1!$C$12:$C$200</definedName>
-    <definedName name="A2294887L_Latest">Data1!$C$200</definedName>
-    <definedName name="A2294888R">Data1!$D$1:$D$10,Data1!$D$15:$D$200</definedName>
-    <definedName name="A2294888R_Data">Data1!$D$15:$D$200</definedName>
-    <definedName name="A2294888R_Latest">Data1!$D$200</definedName>
-    <definedName name="A2295519A">Data1!$E$1:$E$10,Data1!$E$75:$E$200</definedName>
-    <definedName name="A2295519A_Data">Data1!$E$75:$E$200</definedName>
-    <definedName name="A2295519A_Latest">Data1!$E$200</definedName>
-    <definedName name="A2295522R">Data1!$P$1:$P$10,Data1!$P$75:$P$200</definedName>
-    <definedName name="A2295522R_Data">Data1!$P$75:$P$200</definedName>
-    <definedName name="A2295522R_Latest">Data1!$P$200</definedName>
-    <definedName name="A2295525W">Data1!$R$1:$R$10,Data1!$R$75:$R$200</definedName>
-    <definedName name="A2295525W_Data">Data1!$R$75:$R$200</definedName>
-    <definedName name="A2295525W_Latest">Data1!$R$200</definedName>
-    <definedName name="A2295528C">Data1!$Y$1:$Y$10,Data1!$Y$75:$Y$200</definedName>
-    <definedName name="A2295528C_Data">Data1!$Y$75:$Y$200</definedName>
-    <definedName name="A2295528C_Latest">Data1!$Y$200</definedName>
-    <definedName name="A2295531T">Data1!$AC$1:$AC$10,Data1!$AC$75:$AC$200</definedName>
-    <definedName name="A2295531T_Data">Data1!$AC$75:$AC$200</definedName>
-    <definedName name="A2295531T_Latest">Data1!$AC$200</definedName>
-    <definedName name="A2295534X">Data1!$AT$1:$AT$10,Data1!$AT$75:$AT$200</definedName>
-    <definedName name="A2295534X_Data">Data1!$AT$75:$AT$200</definedName>
-    <definedName name="A2295534X_Latest">Data1!$AT$200</definedName>
-    <definedName name="A2295537F">Data1!$AY$1:$AY$10,Data1!$AY$75:$AY$200</definedName>
-    <definedName name="A2295537F_Data">Data1!$AY$75:$AY$200</definedName>
-    <definedName name="A2295537F_Latest">Data1!$AY$200</definedName>
-    <definedName name="A2295540V">Data1!$BD$1:$BD$10,Data1!$BD$75:$BD$200</definedName>
-    <definedName name="A2295540V_Data">Data1!$BD$75:$BD$200</definedName>
-    <definedName name="A2295540V_Latest">Data1!$BD$200</definedName>
-    <definedName name="A2295543A">Data1!$AM$1:$AM$10,Data1!$AM$75:$AM$200</definedName>
-    <definedName name="A2295543A_Data">Data1!$AM$75:$AM$200</definedName>
-    <definedName name="A2295543A_Latest">Data1!$AM$200</definedName>
-    <definedName name="A2295546J">Data1!$AE$1:$AE$10,Data1!$AE$75:$AE$200</definedName>
-    <definedName name="A2295546J_Data">Data1!$AE$75:$AE$200</definedName>
-    <definedName name="A2295546J_Latest">Data1!$AE$200</definedName>
-    <definedName name="A2295549R">Data1!$F$1:$F$10,Data1!$F$11:$F$200</definedName>
-    <definedName name="A2295549R_Data">Data1!$F$11:$F$200</definedName>
-    <definedName name="A2295549R_Latest">Data1!$F$200</definedName>
-    <definedName name="A2295552C">Data1!$I$1:$I$10,Data1!$I$11:$I$200</definedName>
-    <definedName name="A2295552C_Data">Data1!$I$11:$I$200</definedName>
-    <definedName name="A2295552C_Latest">Data1!$I$200</definedName>
-    <definedName name="A2295555K">Data1!$J$1:$J$10,Data1!$J$11:$J$200</definedName>
-    <definedName name="A2295555K_Data">Data1!$J$11:$J$200</definedName>
-    <definedName name="A2295555K_Latest">Data1!$J$200</definedName>
-    <definedName name="A2295558T">Data1!$K$1:$K$10,Data1!$K$11:$K$200</definedName>
-    <definedName name="A2295558T_Data">Data1!$K$11:$K$200</definedName>
-    <definedName name="A2295558T_Latest">Data1!$K$200</definedName>
-    <definedName name="A2295561F">Data1!$L$1:$L$10,Data1!$L$11:$L$200</definedName>
-    <definedName name="A2295561F_Data">Data1!$L$11:$L$200</definedName>
-    <definedName name="A2295561F_Latest">Data1!$L$200</definedName>
-    <definedName name="A2295564L">Data1!$N$1:$N$10,Data1!$N$11:$N$200</definedName>
-    <definedName name="A2295564L_Data">Data1!$N$11:$N$200</definedName>
-    <definedName name="A2295564L_Latest">Data1!$N$200</definedName>
-    <definedName name="A2295567V">Data1!$O$1:$O$10,Data1!$O$75:$O$200</definedName>
-    <definedName name="A2295567V_Data">Data1!$O$75:$O$200</definedName>
-    <definedName name="A2295567V_Latest">Data1!$O$200</definedName>
-    <definedName name="A2295570J">Data1!$G$1:$G$10,Data1!$G$11:$G$200</definedName>
-    <definedName name="A2295570J_Data">Data1!$G$11:$G$200</definedName>
-    <definedName name="A2295570J_Latest">Data1!$G$200</definedName>
-    <definedName name="A2295573R">Data1!$H$1:$H$10,Data1!$H$11:$H$200</definedName>
-    <definedName name="A2295573R_Data">Data1!$H$11:$H$200</definedName>
-    <definedName name="A2295573R_Latest">Data1!$H$200</definedName>
-    <definedName name="A2295576W">Data1!$M$1:$M$10,Data1!$M$11:$M$200</definedName>
-    <definedName name="A2295576W_Data">Data1!$M$11:$M$200</definedName>
-    <definedName name="A2295576W_Latest">Data1!$M$200</definedName>
-    <definedName name="A2295579C">Data1!$Q$1:$Q$10,Data1!$Q$75:$Q$200</definedName>
-    <definedName name="A2295579C_Data">Data1!$Q$75:$Q$200</definedName>
-    <definedName name="A2295579C_Latest">Data1!$Q$200</definedName>
-    <definedName name="A2295582T">Data1!$S$1:$S$10,Data1!$S$11:$S$200</definedName>
-    <definedName name="A2295582T_Data">Data1!$S$11:$S$200</definedName>
-    <definedName name="A2295582T_Latest">Data1!$S$200</definedName>
-    <definedName name="A2295585X">Data1!$U$1:$U$10,Data1!$U$11:$U$200</definedName>
-    <definedName name="A2295585X_Data">Data1!$U$11:$U$200</definedName>
-    <definedName name="A2295585X_Latest">Data1!$U$200</definedName>
-    <definedName name="A2295588F">Data1!$V$1:$V$10,Data1!$V$11:$V$200</definedName>
-    <definedName name="A2295588F_Data">Data1!$V$11:$V$200</definedName>
-    <definedName name="A2295588F_Latest">Data1!$V$200</definedName>
-    <definedName name="A2295591V">Data1!$W$1:$W$10,Data1!$W$11:$W$200</definedName>
-    <definedName name="A2295591V_Data">Data1!$W$11:$W$200</definedName>
-    <definedName name="A2295591V_Latest">Data1!$W$200</definedName>
-    <definedName name="A2295594A">Data1!$X$1:$X$10,Data1!$X$11:$X$200</definedName>
-    <definedName name="A2295594A_Data">Data1!$X$11:$X$200</definedName>
-    <definedName name="A2295594A_Latest">Data1!$X$200</definedName>
-    <definedName name="A2295597J">Data1!$T$1:$T$10,Data1!$T$75:$T$200</definedName>
-    <definedName name="A2295597J_Data">Data1!$T$75:$T$200</definedName>
-    <definedName name="A2295597J_Latest">Data1!$T$200</definedName>
-    <definedName name="A2295600K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$200</definedName>
-    <definedName name="A2295600K_Data">Data1!$AA$11:$AA$200</definedName>
-    <definedName name="A2295600K_Latest">Data1!$AA$200</definedName>
-    <definedName name="A2295603T">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$200</definedName>
-    <definedName name="A2295603T_Data">Data1!$AB$11:$AB$200</definedName>
-    <definedName name="A2295603T_Latest">Data1!$AB$200</definedName>
-    <definedName name="A2295606X">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$200</definedName>
-    <definedName name="A2295606X_Data">Data1!$Z$11:$Z$200</definedName>
-    <definedName name="A2295606X_Latest">Data1!$Z$200</definedName>
-    <definedName name="A2295609F">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$200</definedName>
-    <definedName name="A2295609F_Data">Data1!$AD$11:$AD$200</definedName>
-    <definedName name="A2295609F_Latest">Data1!$AD$200</definedName>
-    <definedName name="A2295612V">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$200</definedName>
-    <definedName name="A2295612V_Data">Data1!$AU$11:$AU$200</definedName>
-    <definedName name="A2295612V_Latest">Data1!$AU$200</definedName>
-    <definedName name="A2295615A">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$200</definedName>
-    <definedName name="A2295615A_Data">Data1!$AV$11:$AV$200</definedName>
-    <definedName name="A2295615A_Latest">Data1!$AV$200</definedName>
-    <definedName name="A2295618J">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$200</definedName>
-    <definedName name="A2295618J_Data">Data1!$AW$11:$AW$200</definedName>
-    <definedName name="A2295618J_Latest">Data1!$AW$200</definedName>
-    <definedName name="A2295621W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$200</definedName>
-    <definedName name="A2295621W_Data">Data1!$AX$11:$AX$200</definedName>
-    <definedName name="A2295621W_Latest">Data1!$AX$200</definedName>
-    <definedName name="A2295624C">Data1!$AZ$1:$AZ$10,Data1!$AZ$75:$AZ$200</definedName>
-    <definedName name="A2295624C_Data">Data1!$AZ$75:$AZ$200</definedName>
-    <definedName name="A2295624C_Latest">Data1!$AZ$200</definedName>
-    <definedName name="A2295627K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$200</definedName>
-    <definedName name="A2295627K_Data">Data1!$BA$11:$BA$200</definedName>
-    <definedName name="A2295627K_Latest">Data1!$BA$200</definedName>
-    <definedName name="A2295630X">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$200</definedName>
-    <definedName name="A2295630X_Data">Data1!$BB$11:$BB$200</definedName>
-    <definedName name="A2295630X_Latest">Data1!$BB$200</definedName>
-    <definedName name="A2295633F">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$200</definedName>
-    <definedName name="A2295633F_Data">Data1!$BC$11:$BC$200</definedName>
-    <definedName name="A2295633F_Latest">Data1!$BC$200</definedName>
-    <definedName name="A2295636L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$200</definedName>
-    <definedName name="A2295636L_Data">Data1!$BE$11:$BE$200</definedName>
-    <definedName name="A2295636L_Latest">Data1!$BE$200</definedName>
-    <definedName name="A2295639V">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$200</definedName>
-    <definedName name="A2295639V_Data">Data1!$AN$11:$AN$200</definedName>
-    <definedName name="A2295639V_Latest">Data1!$AN$200</definedName>
-    <definedName name="A2295642J">Data1!$AO$1:$AO$10,Data1!$AO$75:$AO$200</definedName>
-    <definedName name="A2295642J_Data">Data1!$AO$75:$AO$200</definedName>
-    <definedName name="A2295642J_Latest">Data1!$AO$200</definedName>
-    <definedName name="A2295645R">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$200</definedName>
-    <definedName name="A2295645R_Data">Data1!$AP$11:$AP$200</definedName>
-    <definedName name="A2295645R_Latest">Data1!$AP$200</definedName>
-    <definedName name="A2295648W">Data1!$AQ$1:$AQ$10,Data1!$AQ$75:$AQ$200</definedName>
-    <definedName name="A2295648W_Data">Data1!$AQ$75:$AQ$200</definedName>
-    <definedName name="A2295648W_Latest">Data1!$AQ$200</definedName>
-    <definedName name="A2295651K">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$200</definedName>
-    <definedName name="A2295651K_Data">Data1!$AS$11:$AS$200</definedName>
-    <definedName name="A2295651K_Latest">Data1!$AS$200</definedName>
-    <definedName name="A2295654T">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$200</definedName>
-    <definedName name="A2295654T_Data">Data1!$AR$11:$AR$200</definedName>
-    <definedName name="A2295654T_Latest">Data1!$AR$200</definedName>
-    <definedName name="A2295657X">Data1!$AF$1:$AF$10,Data1!$AF$75:$AF$200</definedName>
-    <definedName name="A2295657X_Data">Data1!$AF$75:$AF$200</definedName>
-    <definedName name="A2295657X_Latest">Data1!$AF$200</definedName>
-    <definedName name="A2295660L">Data1!$AH$1:$AH$10,Data1!$AH$75:$AH$200</definedName>
-    <definedName name="A2295660L_Data">Data1!$AH$75:$AH$200</definedName>
-    <definedName name="A2295660L_Latest">Data1!$AH$200</definedName>
-    <definedName name="A2295663V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$200</definedName>
-    <definedName name="A2295663V_Data">Data1!$AI$11:$AI$200</definedName>
-    <definedName name="A2295663V_Latest">Data1!$AI$200</definedName>
-    <definedName name="A2295666A">Data1!$AJ$1:$AJ$10,Data1!$AJ$75:$AJ$200</definedName>
-    <definedName name="A2295666A_Data">Data1!$AJ$75:$AJ$200</definedName>
-    <definedName name="A2295666A_Latest">Data1!$AJ$200</definedName>
-    <definedName name="A2295669J">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$200</definedName>
-    <definedName name="A2295669J_Data">Data1!$AK$11:$AK$200</definedName>
-    <definedName name="A2295669J_Latest">Data1!$AK$200</definedName>
-    <definedName name="A2295672W">Data1!$AG$1:$AG$10,Data1!$AG$75:$AG$200</definedName>
-    <definedName name="A2295672W_Data">Data1!$AG$75:$AG$200</definedName>
-    <definedName name="A2295672W_Latest">Data1!$AG$200</definedName>
-    <definedName name="A2295675C">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$200</definedName>
-    <definedName name="A2295675C_Data">Data1!$AL$11:$AL$200</definedName>
-    <definedName name="A2295675C_Latest">Data1!$AL$200</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$200</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$200</definedName>
+    <definedName name="A2294886K">Data1!$B$1:$B$10,Data1!$B$11:$B$201</definedName>
+    <definedName name="A2294886K_Data">Data1!$B$11:$B$201</definedName>
+    <definedName name="A2294886K_Latest">Data1!$B$201</definedName>
+    <definedName name="A2294887L">Data1!$C$1:$C$10,Data1!$C$12:$C$201</definedName>
+    <definedName name="A2294887L_Data">Data1!$C$12:$C$201</definedName>
+    <definedName name="A2294887L_Latest">Data1!$C$201</definedName>
+    <definedName name="A2294888R">Data1!$D$1:$D$10,Data1!$D$15:$D$201</definedName>
+    <definedName name="A2294888R_Data">Data1!$D$15:$D$201</definedName>
+    <definedName name="A2294888R_Latest">Data1!$D$201</definedName>
+    <definedName name="A2295519A">Data1!$E$1:$E$10,Data1!$E$75:$E$201</definedName>
+    <definedName name="A2295519A_Data">Data1!$E$75:$E$201</definedName>
+    <definedName name="A2295519A_Latest">Data1!$E$201</definedName>
+    <definedName name="A2295522R">Data1!$P$1:$P$10,Data1!$P$75:$P$201</definedName>
+    <definedName name="A2295522R_Data">Data1!$P$75:$P$201</definedName>
+    <definedName name="A2295522R_Latest">Data1!$P$201</definedName>
+    <definedName name="A2295525W">Data1!$R$1:$R$10,Data1!$R$75:$R$201</definedName>
+    <definedName name="A2295525W_Data">Data1!$R$75:$R$201</definedName>
+    <definedName name="A2295525W_Latest">Data1!$R$201</definedName>
+    <definedName name="A2295528C">Data1!$Y$1:$Y$10,Data1!$Y$75:$Y$201</definedName>
+    <definedName name="A2295528C_Data">Data1!$Y$75:$Y$201</definedName>
+    <definedName name="A2295528C_Latest">Data1!$Y$201</definedName>
+    <definedName name="A2295531T">Data1!$AC$1:$AC$10,Data1!$AC$75:$AC$201</definedName>
+    <definedName name="A2295531T_Data">Data1!$AC$75:$AC$201</definedName>
+    <definedName name="A2295531T_Latest">Data1!$AC$201</definedName>
+    <definedName name="A2295534X">Data1!$AT$1:$AT$10,Data1!$AT$75:$AT$201</definedName>
+    <definedName name="A2295534X_Data">Data1!$AT$75:$AT$201</definedName>
+    <definedName name="A2295534X_Latest">Data1!$AT$201</definedName>
+    <definedName name="A2295537F">Data1!$AY$1:$AY$10,Data1!$AY$75:$AY$201</definedName>
+    <definedName name="A2295537F_Data">Data1!$AY$75:$AY$201</definedName>
+    <definedName name="A2295537F_Latest">Data1!$AY$201</definedName>
+    <definedName name="A2295540V">Data1!$BD$1:$BD$10,Data1!$BD$75:$BD$201</definedName>
+    <definedName name="A2295540V_Data">Data1!$BD$75:$BD$201</definedName>
+    <definedName name="A2295540V_Latest">Data1!$BD$201</definedName>
+    <definedName name="A2295543A">Data1!$AM$1:$AM$10,Data1!$AM$75:$AM$201</definedName>
+    <definedName name="A2295543A_Data">Data1!$AM$75:$AM$201</definedName>
+    <definedName name="A2295543A_Latest">Data1!$AM$201</definedName>
+    <definedName name="A2295546J">Data1!$AE$1:$AE$10,Data1!$AE$75:$AE$201</definedName>
+    <definedName name="A2295546J_Data">Data1!$AE$75:$AE$201</definedName>
+    <definedName name="A2295546J_Latest">Data1!$AE$201</definedName>
+    <definedName name="A2295549R">Data1!$F$1:$F$10,Data1!$F$11:$F$201</definedName>
+    <definedName name="A2295549R_Data">Data1!$F$11:$F$201</definedName>
+    <definedName name="A2295549R_Latest">Data1!$F$201</definedName>
+    <definedName name="A2295552C">Data1!$I$1:$I$10,Data1!$I$11:$I$201</definedName>
+    <definedName name="A2295552C_Data">Data1!$I$11:$I$201</definedName>
+    <definedName name="A2295552C_Latest">Data1!$I$201</definedName>
+    <definedName name="A2295555K">Data1!$J$1:$J$10,Data1!$J$11:$J$201</definedName>
+    <definedName name="A2295555K_Data">Data1!$J$11:$J$201</definedName>
+    <definedName name="A2295555K_Latest">Data1!$J$201</definedName>
+    <definedName name="A2295558T">Data1!$K$1:$K$10,Data1!$K$11:$K$201</definedName>
+    <definedName name="A2295558T_Data">Data1!$K$11:$K$201</definedName>
+    <definedName name="A2295558T_Latest">Data1!$K$201</definedName>
+    <definedName name="A2295561F">Data1!$L$1:$L$10,Data1!$L$11:$L$201</definedName>
+    <definedName name="A2295561F_Data">Data1!$L$11:$L$201</definedName>
+    <definedName name="A2295561F_Latest">Data1!$L$201</definedName>
+    <definedName name="A2295564L">Data1!$N$1:$N$10,Data1!$N$11:$N$201</definedName>
+    <definedName name="A2295564L_Data">Data1!$N$11:$N$201</definedName>
+    <definedName name="A2295564L_Latest">Data1!$N$201</definedName>
+    <definedName name="A2295567V">Data1!$O$1:$O$10,Data1!$O$75:$O$201</definedName>
+    <definedName name="A2295567V_Data">Data1!$O$75:$O$201</definedName>
+    <definedName name="A2295567V_Latest">Data1!$O$201</definedName>
+    <definedName name="A2295570J">Data1!$G$1:$G$10,Data1!$G$11:$G$201</definedName>
+    <definedName name="A2295570J_Data">Data1!$G$11:$G$201</definedName>
+    <definedName name="A2295570J_Latest">Data1!$G$201</definedName>
+    <definedName name="A2295573R">Data1!$H$1:$H$10,Data1!$H$11:$H$201</definedName>
+    <definedName name="A2295573R_Data">Data1!$H$11:$H$201</definedName>
+    <definedName name="A2295573R_Latest">Data1!$H$201</definedName>
+    <definedName name="A2295576W">Data1!$M$1:$M$10,Data1!$M$11:$M$201</definedName>
+    <definedName name="A2295576W_Data">Data1!$M$11:$M$201</definedName>
+    <definedName name="A2295576W_Latest">Data1!$M$201</definedName>
+    <definedName name="A2295579C">Data1!$Q$1:$Q$10,Data1!$Q$75:$Q$201</definedName>
+    <definedName name="A2295579C_Data">Data1!$Q$75:$Q$201</definedName>
+    <definedName name="A2295579C_Latest">Data1!$Q$201</definedName>
+    <definedName name="A2295582T">Data1!$S$1:$S$10,Data1!$S$11:$S$201</definedName>
+    <definedName name="A2295582T_Data">Data1!$S$11:$S$201</definedName>
+    <definedName name="A2295582T_Latest">Data1!$S$201</definedName>
+    <definedName name="A2295585X">Data1!$U$1:$U$10,Data1!$U$11:$U$201</definedName>
+    <definedName name="A2295585X_Data">Data1!$U$11:$U$201</definedName>
+    <definedName name="A2295585X_Latest">Data1!$U$201</definedName>
+    <definedName name="A2295588F">Data1!$V$1:$V$10,Data1!$V$11:$V$201</definedName>
+    <definedName name="A2295588F_Data">Data1!$V$11:$V$201</definedName>
+    <definedName name="A2295588F_Latest">Data1!$V$201</definedName>
+    <definedName name="A2295591V">Data1!$W$1:$W$10,Data1!$W$11:$W$201</definedName>
+    <definedName name="A2295591V_Data">Data1!$W$11:$W$201</definedName>
+    <definedName name="A2295591V_Latest">Data1!$W$201</definedName>
+    <definedName name="A2295594A">Data1!$X$1:$X$10,Data1!$X$11:$X$201</definedName>
+    <definedName name="A2295594A_Data">Data1!$X$11:$X$201</definedName>
+    <definedName name="A2295594A_Latest">Data1!$X$201</definedName>
+    <definedName name="A2295597J">Data1!$T$1:$T$10,Data1!$T$75:$T$201</definedName>
+    <definedName name="A2295597J_Data">Data1!$T$75:$T$201</definedName>
+    <definedName name="A2295597J_Latest">Data1!$T$201</definedName>
+    <definedName name="A2295600K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$201</definedName>
+    <definedName name="A2295600K_Data">Data1!$AA$11:$AA$201</definedName>
+    <definedName name="A2295600K_Latest">Data1!$AA$201</definedName>
+    <definedName name="A2295603T">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$201</definedName>
+    <definedName name="A2295603T_Data">Data1!$AB$11:$AB$201</definedName>
+    <definedName name="A2295603T_Latest">Data1!$AB$201</definedName>
+    <definedName name="A2295606X">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$201</definedName>
+    <definedName name="A2295606X_Data">Data1!$Z$11:$Z$201</definedName>
+    <definedName name="A2295606X_Latest">Data1!$Z$201</definedName>
+    <definedName name="A2295609F">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$201</definedName>
+    <definedName name="A2295609F_Data">Data1!$AD$11:$AD$201</definedName>
+    <definedName name="A2295609F_Latest">Data1!$AD$201</definedName>
+    <definedName name="A2295612V">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$201</definedName>
+    <definedName name="A2295612V_Data">Data1!$AU$11:$AU$201</definedName>
+    <definedName name="A2295612V_Latest">Data1!$AU$201</definedName>
+    <definedName name="A2295615A">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$201</definedName>
+    <definedName name="A2295615A_Data">Data1!$AV$11:$AV$201</definedName>
+    <definedName name="A2295615A_Latest">Data1!$AV$201</definedName>
+    <definedName name="A2295618J">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$201</definedName>
+    <definedName name="A2295618J_Data">Data1!$AW$11:$AW$201</definedName>
+    <definedName name="A2295618J_Latest">Data1!$AW$201</definedName>
+    <definedName name="A2295621W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$201</definedName>
+    <definedName name="A2295621W_Data">Data1!$AX$11:$AX$201</definedName>
+    <definedName name="A2295621W_Latest">Data1!$AX$201</definedName>
+    <definedName name="A2295624C">Data1!$AZ$1:$AZ$10,Data1!$AZ$75:$AZ$201</definedName>
+    <definedName name="A2295624C_Data">Data1!$AZ$75:$AZ$201</definedName>
+    <definedName name="A2295624C_Latest">Data1!$AZ$201</definedName>
+    <definedName name="A2295627K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$201</definedName>
+    <definedName name="A2295627K_Data">Data1!$BA$11:$BA$201</definedName>
+    <definedName name="A2295627K_Latest">Data1!$BA$201</definedName>
+    <definedName name="A2295630X">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$201</definedName>
+    <definedName name="A2295630X_Data">Data1!$BB$11:$BB$201</definedName>
+    <definedName name="A2295630X_Latest">Data1!$BB$201</definedName>
+    <definedName name="A2295633F">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$201</definedName>
+    <definedName name="A2295633F_Data">Data1!$BC$11:$BC$201</definedName>
+    <definedName name="A2295633F_Latest">Data1!$BC$201</definedName>
+    <definedName name="A2295636L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$201</definedName>
+    <definedName name="A2295636L_Data">Data1!$BE$11:$BE$201</definedName>
+    <definedName name="A2295636L_Latest">Data1!$BE$201</definedName>
+    <definedName name="A2295639V">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$201</definedName>
+    <definedName name="A2295639V_Data">Data1!$AN$11:$AN$201</definedName>
+    <definedName name="A2295639V_Latest">Data1!$AN$201</definedName>
+    <definedName name="A2295642J">Data1!$AO$1:$AO$10,Data1!$AO$75:$AO$201</definedName>
+    <definedName name="A2295642J_Data">Data1!$AO$75:$AO$201</definedName>
+    <definedName name="A2295642J_Latest">Data1!$AO$201</definedName>
+    <definedName name="A2295645R">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$201</definedName>
+    <definedName name="A2295645R_Data">Data1!$AP$11:$AP$201</definedName>
+    <definedName name="A2295645R_Latest">Data1!$AP$201</definedName>
+    <definedName name="A2295648W">Data1!$AQ$1:$AQ$10,Data1!$AQ$75:$AQ$201</definedName>
+    <definedName name="A2295648W_Data">Data1!$AQ$75:$AQ$201</definedName>
+    <definedName name="A2295648W_Latest">Data1!$AQ$201</definedName>
+    <definedName name="A2295651K">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$201</definedName>
+    <definedName name="A2295651K_Data">Data1!$AS$11:$AS$201</definedName>
+    <definedName name="A2295651K_Latest">Data1!$AS$201</definedName>
+    <definedName name="A2295654T">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$201</definedName>
+    <definedName name="A2295654T_Data">Data1!$AR$11:$AR$201</definedName>
+    <definedName name="A2295654T_Latest">Data1!$AR$201</definedName>
+    <definedName name="A2295657X">Data1!$AF$1:$AF$10,Data1!$AF$75:$AF$201</definedName>
+    <definedName name="A2295657X_Data">Data1!$AF$75:$AF$201</definedName>
+    <definedName name="A2295657X_Latest">Data1!$AF$201</definedName>
+    <definedName name="A2295660L">Data1!$AH$1:$AH$10,Data1!$AH$75:$AH$201</definedName>
+    <definedName name="A2295660L_Data">Data1!$AH$75:$AH$201</definedName>
+    <definedName name="A2295660L_Latest">Data1!$AH$201</definedName>
+    <definedName name="A2295663V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$201</definedName>
+    <definedName name="A2295663V_Data">Data1!$AI$11:$AI$201</definedName>
+    <definedName name="A2295663V_Latest">Data1!$AI$201</definedName>
+    <definedName name="A2295666A">Data1!$AJ$1:$AJ$10,Data1!$AJ$75:$AJ$201</definedName>
+    <definedName name="A2295666A_Data">Data1!$AJ$75:$AJ$201</definedName>
+    <definedName name="A2295666A_Latest">Data1!$AJ$201</definedName>
+    <definedName name="A2295669J">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$201</definedName>
+    <definedName name="A2295669J_Data">Data1!$AK$11:$AK$201</definedName>
+    <definedName name="A2295669J_Latest">Data1!$AK$201</definedName>
+    <definedName name="A2295672W">Data1!$AG$1:$AG$10,Data1!$AG$75:$AG$201</definedName>
+    <definedName name="A2295672W_Data">Data1!$AG$75:$AG$201</definedName>
+    <definedName name="A2295672W_Latest">Data1!$AG$201</definedName>
+    <definedName name="A2295675C">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$201</definedName>
+    <definedName name="A2295675C_Data">Data1!$AL$11:$AL$201</definedName>
+    <definedName name="A2295675C_Latest">Data1!$AL$201</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$201</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$201</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2756,10 +2756,10 @@
         <v>27273</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>65</v>
@@ -2788,10 +2788,10 @@
         <v>27364</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>70</v>
@@ -2820,10 +2820,10 @@
         <v>27638</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>70</v>
@@ -2852,10 +2852,10 @@
         <v>33117</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>65</v>
@@ -2884,10 +2884,10 @@
         <v>27273</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>65</v>
@@ -2916,10 +2916,10 @@
         <v>27273</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>65</v>
@@ -2948,10 +2948,10 @@
         <v>27273</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>65</v>
@@ -2980,10 +2980,10 @@
         <v>27273</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>65</v>
@@ -3012,10 +3012,10 @@
         <v>27273</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>65</v>
@@ -3044,10 +3044,10 @@
         <v>27273</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>65</v>
@@ -3076,10 +3076,10 @@
         <v>27273</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>65</v>
@@ -3108,10 +3108,10 @@
         <v>27273</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>65</v>
@@ -3140,10 +3140,10 @@
         <v>27273</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>65</v>
@@ -3172,10 +3172,10 @@
         <v>33117</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>65</v>
@@ -3204,10 +3204,10 @@
         <v>33117</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>65</v>
@@ -3236,10 +3236,10 @@
         <v>33117</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>65</v>
@@ -3268,10 +3268,10 @@
         <v>33117</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>65</v>
@@ -3300,10 +3300,10 @@
         <v>27273</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>65</v>
@@ -3332,10 +3332,10 @@
         <v>33117</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>65</v>
@@ -3364,10 +3364,10 @@
         <v>27273</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>65</v>
@@ -3396,10 +3396,10 @@
         <v>27273</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>65</v>
@@ -3428,10 +3428,10 @@
         <v>27273</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>65</v>
@@ -3460,10 +3460,10 @@
         <v>27273</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>65</v>
@@ -3492,10 +3492,10 @@
         <v>33117</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>65</v>
@@ -3524,10 +3524,10 @@
         <v>27273</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>65</v>
@@ -3556,10 +3556,10 @@
         <v>27273</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>65</v>
@@ -3588,10 +3588,10 @@
         <v>27273</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>65</v>
@@ -3620,10 +3620,10 @@
         <v>33117</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>65</v>
@@ -3652,10 +3652,10 @@
         <v>27273</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>65</v>
@@ -3684,10 +3684,10 @@
         <v>33117</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>65</v>
@@ -3716,10 +3716,10 @@
         <v>33117</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>65</v>
@@ -3748,10 +3748,10 @@
         <v>33117</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>65</v>
@@ -3780,10 +3780,10 @@
         <v>33117</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>65</v>
@@ -3812,10 +3812,10 @@
         <v>27273</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>65</v>
@@ -3844,10 +3844,10 @@
         <v>33117</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>65</v>
@@ -3876,10 +3876,10 @@
         <v>27273</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>65</v>
@@ -3908,10 +3908,10 @@
         <v>27273</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>65</v>
@@ -3940,10 +3940,10 @@
         <v>33117</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>65</v>
@@ -3972,10 +3972,10 @@
         <v>27273</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>65</v>
@@ -4004,10 +4004,10 @@
         <v>33117</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>65</v>
@@ -4036,10 +4036,10 @@
         <v>27273</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>65</v>
@@ -4068,10 +4068,10 @@
         <v>33117</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>65</v>
@@ -4100,10 +4100,10 @@
         <v>27273</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>65</v>
@@ -4132,10 +4132,10 @@
         <v>27273</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>65</v>
@@ -4164,10 +4164,10 @@
         <v>33117</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>65</v>
@@ -4196,10 +4196,10 @@
         <v>27273</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>65</v>
@@ -4228,10 +4228,10 @@
         <v>27273</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>65</v>
@@ -4260,10 +4260,10 @@
         <v>27273</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>65</v>
@@ -4292,10 +4292,10 @@
         <v>27273</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>65</v>
@@ -4324,10 +4324,10 @@
         <v>33117</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>65</v>
@@ -4356,10 +4356,10 @@
         <v>33117</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>65</v>
@@ -4388,10 +4388,10 @@
         <v>27273</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>65</v>
@@ -4420,10 +4420,10 @@
         <v>27273</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>65</v>
@@ -4452,10 +4452,10 @@
         <v>27273</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>65</v>
@@ -4484,10 +4484,10 @@
         <v>33117</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>65</v>
@@ -4516,10 +4516,10 @@
         <v>27273</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>65</v>
@@ -4610,7 +4610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE200"/>
+  <dimension ref="A1:BE201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -5837,172 +5837,172 @@
         <v>62</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
@@ -6010,172 +6010,172 @@
         <v>63</v>
       </c>
       <c r="B9" s="1">
+        <v>191</v>
+      </c>
+      <c r="C9" s="1">
         <v>190</v>
       </c>
-      <c r="C9" s="1">
-        <v>189</v>
-      </c>
       <c r="D9" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AH9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AJ9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AP9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AS9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AT9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AU9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AY9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AZ9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BD9" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE9" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
@@ -35364,6 +35364,179 @@
       </c>
       <c r="BE200" s="8">
         <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A201" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B201" s="8">
+        <v>178</v>
+      </c>
+      <c r="C201" s="8">
+        <v>18</v>
+      </c>
+      <c r="D201" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="E201" s="8">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="F201" s="8">
+        <v>171.1</v>
+      </c>
+      <c r="G201" s="8">
+        <v>210.3</v>
+      </c>
+      <c r="H201" s="8">
+        <v>144.9</v>
+      </c>
+      <c r="I201" s="8">
+        <v>108.2</v>
+      </c>
+      <c r="J201" s="8">
+        <v>132.9</v>
+      </c>
+      <c r="K201" s="8">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="L201" s="8">
+        <v>112</v>
+      </c>
+      <c r="M201" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="N201" s="8">
+        <v>133.9</v>
+      </c>
+      <c r="O201" s="8">
+        <v>103.6</v>
+      </c>
+      <c r="P201" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="Q201" s="8">
+        <v>127</v>
+      </c>
+      <c r="R201" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="S201" s="8">
+        <v>76.8</v>
+      </c>
+      <c r="T201" s="8">
+        <v>221.3</v>
+      </c>
+      <c r="U201" s="8">
+        <v>155</v>
+      </c>
+      <c r="V201" s="8">
+        <v>116.9</v>
+      </c>
+      <c r="W201" s="8">
+        <v>130.5</v>
+      </c>
+      <c r="X201" s="8">
+        <v>137.5</v>
+      </c>
+      <c r="Y201" s="8">
+        <v>232.5</v>
+      </c>
+      <c r="Z201" s="8">
+        <v>238.3</v>
+      </c>
+      <c r="AA201" s="8">
+        <v>130.6</v>
+      </c>
+      <c r="AB201" s="8">
+        <v>227.9</v>
+      </c>
+      <c r="AC201" s="8">
+        <v>227.3</v>
+      </c>
+      <c r="AD201" s="8">
+        <v>242.3</v>
+      </c>
+      <c r="AE201" s="8">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="AF201" s="8">
+        <v>114.3</v>
+      </c>
+      <c r="AG201" s="8">
+        <v>225.4</v>
+      </c>
+      <c r="AH201" s="8">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="AI201" s="8">
+        <v>117.4</v>
+      </c>
+      <c r="AJ201" s="8">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="AK201" s="8">
+        <v>136.1</v>
+      </c>
+      <c r="AL201" s="8">
+        <v>143</v>
+      </c>
+      <c r="AM201" s="8">
+        <v>180.1</v>
+      </c>
+      <c r="AN201" s="8">
+        <v>105.3</v>
+      </c>
+      <c r="AO201" s="8">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="AP201" s="8">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AQ201" s="8">
+        <v>104.3</v>
+      </c>
+      <c r="AR201" s="8">
+        <v>212.8</v>
+      </c>
+      <c r="AS201" s="8">
+        <v>182.9</v>
+      </c>
+      <c r="AT201" s="8">
+        <v>133.9</v>
+      </c>
+      <c r="AU201" s="8">
+        <v>138.1</v>
+      </c>
+      <c r="AV201" s="8">
+        <v>131.6</v>
+      </c>
+      <c r="AW201" s="8">
+        <v>110</v>
+      </c>
+      <c r="AX201" s="8">
+        <v>134.4</v>
+      </c>
+      <c r="AY201" s="8">
+        <v>116.8</v>
+      </c>
+      <c r="AZ201" s="8">
+        <v>71.7</v>
+      </c>
+      <c r="BA201" s="8">
+        <v>123.7</v>
+      </c>
+      <c r="BB201" s="8">
+        <v>124</v>
+      </c>
+      <c r="BC201" s="8">
+        <v>119.6</v>
+      </c>
+      <c r="BD201" s="8">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="BE201" s="8">
+        <v>140.69999999999999</v>
       </c>
     </row>
   </sheetData>
